--- a/biology/Zoologie/Lachnopus_dilatatus/Lachnopus_dilatatus.xlsx
+++ b/biology/Zoologie/Lachnopus_dilatatus/Lachnopus_dilatatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lachnopus dilatatus est une espèce fossile d'insectes coléoptères de la famille des Curculionidae.
 </t>
@@ -511,11 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Lachnopus dilatatus est décrite par le paléontologue français Nicolas Théobald (1903-1981) en 1937[1],[2]. L'holotype R589 + 92 (empreinte et contre-empreinte) est un fossile, de l'ère Cénozoïque, et de l'époque Rupélien ou Oligocène inférieur (33,9 à 28,4 Ma), de la collection Mieg, conservé au Muséum d'histoire naturelle de Bâle et vient de la localité de Kleinkembs en Bade-Wurtemberg.
-Nomen dubium : 2015
-En , l'espèce Lachnopus dilatatus est considérée comme nomen dubium de la famille des Curculionidae par A. A. Legalov[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lachnopus dilatatus est décrite par le paléontologue français Nicolas Théobald (1903-1981) en 1937,. L'holotype R589 + 92 (empreinte et contre-empreinte) est un fossile, de l'ère Cénozoïque, et de l'époque Rupélien ou Oligocène inférieur (33,9 à 28,4 Ma), de la collection Mieg, conservé au Muséum d'histoire naturelle de Bâle et vient de la localité de Kleinkembs en Bade-Wurtemberg.
 </t>
         </is>
       </c>
@@ -541,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[4],[note 1] : 
-« Un élytre droit ; forme ovale, assez large ; la longueur n'atteint pas tout à fait le double de la largeur ; écusson net ; épaule effacée ; bord sutural droit ; bord marginal bombé ; sommet en pointe mousse ; surface fortement bombée ; apex très déclive ; ornée de dix stries ponctuées ; stries profondes, ponctuations circulaires. Ces lignes de points sont très nettes jusqu'à la partie déclive du sommet de l'aile où leur parcours est plus ou moins effacé. »[1].
-Dimensions
-La longueur est de 7,5 mm et la largeur est de 4 mm[1].
-Affinités
-« Lachnopus recuperatus Scudder de Florissant (Colorado) a la même longueur mais les élytres sont moins larges. L. humatus Scudder du même gisement atteint 8,5 mm (élytres). On n'a pas décrit d'autres espèces de ce genre à l'état fossile. »[1].
+          <t>Nomen dubium : 2015</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En , l'espèce Lachnopus dilatatus est considérée comme nomen dubium de la famille des Curculionidae par A. A. Legalov,.
 </t>
         </is>
       </c>
@@ -578,13 +590,128 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Un élytre droit ; forme ovale, assez large ; la longueur n'atteint pas tout à fait le double de la largeur ; écusson net ; épaule effacée ; bord sutural droit ; bord marginal bombé ; sommet en pointe mousse ; surface fortement bombée ; apex très déclive ; ornée de dix stries ponctuées ; stries profondes, ponctuations circulaires. Ces lignes de points sont très nettes jusqu'à la partie déclive du sommet de l'aile où leur parcours est plus ou moins effacé. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lachnopus_dilatatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lachnopus_dilatatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur est de 7,5 mm et la largeur est de 4 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lachnopus_dilatatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lachnopus_dilatatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Lachnopus recuperatus Scudder de Florissant (Colorado) a la même longueur mais les élytres sont moins larges. L. humatus Scudder du même gisement atteint 8,5 mm (élytres). On n'a pas décrit d'autres espèces de ce genre à l'état fossile. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lachnopus_dilatatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lachnopus_dilatatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Lachnopus est très répandu dans les Indes (40 espèces). Une seule espèce existe en Floride. D'après Scudder la présence de ce genre indique un climat assez chaud. »[1].
+« Le g. Lachnopus est très répandu dans les Indes (40 espèces). Une seule espèce existe en Floride. D'après Scudder la présence de ce genre indique un climat assez chaud. ».
 </t>
         </is>
       </c>
